--- a/reports/report-benchmark.xlsx
+++ b/reports/report-benchmark.xlsx
@@ -133,7 +133,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -183,6 +183,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -199,6 +202,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -464,7 +470,7 @@
       <c r="B5" s="3">
         <v>0.5311</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>0.8916</v>
       </c>
     </row>
@@ -475,7 +481,7 @@
       <c r="B6" s="3">
         <v>0.5311</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>0.8931</v>
       </c>
     </row>
@@ -494,7 +500,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>0.475</v>
       </c>
       <c r="C8" s="3">
@@ -507,10 +513,10 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>0.485</v>
       </c>
       <c r="C10" s="3">
@@ -521,7 +527,7 @@
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>0.507</v>
       </c>
       <c r="C11" s="7">
@@ -532,10 +538,10 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>0.493</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>0.989</v>
       </c>
     </row>
@@ -546,7 +552,7 @@
       <c r="B13" s="5">
         <v>0.5331</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>1.0</v>
       </c>
     </row>
@@ -584,7 +590,7 @@
       <c r="B17" s="5">
         <v>0.5731</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>0.28</v>
       </c>
     </row>
@@ -603,10 +609,10 @@
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>0.513</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>0.734</v>
       </c>
     </row>
@@ -614,7 +620,7 @@
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>0.517</v>
       </c>
       <c r="C20" s="5">
@@ -625,7 +631,7 @@
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>0.519</v>
       </c>
       <c r="C21" s="3">
@@ -652,10 +658,10 @@
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>0.523</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="14">
         <v>0.5544</v>
       </c>
     </row>
@@ -663,7 +669,7 @@
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>0.5251</v>
       </c>
       <c r="C25" s="7">
@@ -674,7 +680,7 @@
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>0.499</v>
       </c>
       <c r="C26" s="3">
@@ -685,7 +691,7 @@
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="9">
         <v>0.495</v>
       </c>
       <c r="C27" s="5">
@@ -696,10 +702,10 @@
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>0.521</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>0.534</v>
       </c>
     </row>
@@ -707,7 +713,7 @@
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="15">
         <v>0.5291</v>
       </c>
       <c r="C29" s="3">
